--- a/DB_Script/DB设计用语.xlsx
+++ b/DB_Script/DB设计用语.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github-repositories\bet365\DB_Script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\repository\bet365\DB_Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6910" xr2:uid="{52355CA9-CD53-49CD-B458-A7370C63ED8F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6912"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>本金</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,27 +107,59 @@
   </si>
   <si>
     <t>gbl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crrt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knockout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘汰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knkt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -153,16 +185,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -473,16 +508,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89923EF8-541F-4462-9AAE-36A07E6507D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -493,7 +528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -515,7 +550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4">
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -526,7 +561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -537,7 +572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4">
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
@@ -548,7 +583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -559,27 +594,39 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4">
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -587,5 +634,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>